--- a/medicine/Sexualité et sexologie/Bang_Gang_(une_histoire_d'amour_moderne)/Bang_Gang_(une_histoire_d'amour_moderne).xlsx
+++ b/medicine/Sexualité et sexologie/Bang_Gang_(une_histoire_d'amour_moderne)/Bang_Gang_(une_histoire_d'amour_moderne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bang Gang (une histoire d'amour moderne) est un film français écrit et réalisé par Eva Husson, sorti en 2015.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La jolie jeune fille de seize ans, George, est amoureuse d’Alex et, pour ce faire, se prépare à un jeu collectif : ses amis et elle découvrent les limites de leur sexualité en pleins faubourgs aisés de Biarritz.
 Le film commence par un flashforward. On y voit Alex, un adolescent, déambuler dans une maison (qu'on apprendra être la sienne) où de nombreux adolescents sont présents pour une soirée à base de nudité, de jeux érotiques et de relations sexuelles débridées. 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Bang Gang (une histoire d'amour moderne)
 Titre international : Bang Gang (A Modern Love Story)
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Finnegan Oldfield : Alex
 Marilyn Lima : George
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,8 +663,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Eva Husson tourne son premier long-métrage entre mi-août 2014 et début octobre 2014 à Biarritz dont la Grande Plage, à Biarritz et dans les Landes, avec le soutien du réalisateur danois Lars von Trier[1],[2].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eva Husson tourne son premier long-métrage entre mi-août 2014 et début octobre 2014 à Biarritz dont la Grande Plage, à Biarritz et dans les Landes, avec le soutien du réalisateur danois Lars von Trier,.
 </t>
         </is>
       </c>
@@ -657,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,12 +700,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Festivals et sorties internationales
-Après l'avoir projeté en compétition au Festival du film francophone d'Angoulême en fin août 2015, Bang Gang se lance dans les salles françaises à partir du 13 janvier 2016.
-Accueil critique
-En plein Festival international du film de Toronto en septembre 2015, Romain Blondeau des Inrockuptibles voit en ce film « un chant exalté pour la furie adolescente, et l’un des plus désirables films issu du jeune cinéma français époque 2015 »[3] et l'envoyée spéciale Isabelle Regnier du Monde souligne que « la réalisatrice exalte avec beaucoup d’intelligence et de talent la vitalité des corps et des esprits d’une jeunesse venue au monde sur les réseaux sociaux, baignée dans la culture porno »[4].
-Lors de la sortie nationale, Pierre Vavasseur du Parisien prévient que « Bang Gang n'y va pas avec le dos de la cuillère sur les dérives d'adolescents. Sexe, drogue et amour à plusieurs. Punition vénérienne. Mais un vrai souffle sensuel et moderne. Un amour transgressif des corps »[5].
-À l'inverse, Hugo-Pierre Gausserand pour Le Figaro résume comme suit sa perception du film : « Eva Husson a l'ambition d'avoir réalisé un film de génération qui déclenchera nécessairement des réactions violentes. Bang Gang est seulement un film prétentieux »[6].
+          <t>Festivals et sorties internationales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'avoir projeté en compétition au Festival du film francophone d'Angoulême en fin août 2015, Bang Gang se lance dans les salles françaises à partir du 13 janvier 2016.
 </t>
         </is>
       </c>
@@ -693,7 +717,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,19 +732,97 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plein Festival international du film de Toronto en septembre 2015, Romain Blondeau des Inrockuptibles voit en ce film « un chant exalté pour la furie adolescente, et l’un des plus désirables films issu du jeune cinéma français époque 2015 » et l'envoyée spéciale Isabelle Regnier du Monde souligne que « la réalisatrice exalte avec beaucoup d’intelligence et de talent la vitalité des corps et des esprits d’une jeunesse venue au monde sur les réseaux sociaux, baignée dans la culture porno ».
+Lors de la sortie nationale, Pierre Vavasseur du Parisien prévient que « Bang Gang n'y va pas avec le dos de la cuillère sur les dérives d'adolescents. Sexe, drogue et amour à plusieurs. Punition vénérienne. Mais un vrai souffle sensuel et moderne. Un amour transgressif des corps ».
+À l'inverse, Hugo-Pierre Gausserand pour Le Figaro résume comme suit sa perception du film : « Eva Husson a l'ambition d'avoir réalisé un film de génération qui déclenchera nécessairement des réactions violentes. Bang Gang est seulement un film prétentieux ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival de cinéma européen des Arcs 2015 :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de cinéma européen des Arcs 2015 :
 Prix du Jury pour Eva Husson
 Prix de la meilleure musique pour White Sea
 Prix du Jury Jeune pour Eva Husson
-Prix Cineuropa pour Eva Husson
-Nominations
-en compétition au Festival du film francophone d'Angoulême 2015</t>
+Prix Cineuropa pour Eva Husson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bang_Gang_(une_histoire_d'amour_moderne)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bang_Gang_(une_histoire_d%27amour_moderne)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>en compétition au Festival du film francophone d'Angoulême 2015</t>
         </is>
       </c>
     </row>
